--- a/templates/Module_6_Template.xlsx
+++ b/templates/Module_6_Template.xlsx
@@ -10425,7 +10425,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZUWCvQD6R2U+5bPUxsCDdBF+X2COZBqhQFUpeFBQe6hZpouzWTf5rW3YDDw6XJs7/eHrbZrz1j5gfFrpYHCfUQ==" saltValue="QyAiEAcon+76EOkdEybe6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R15 E13:M19 D18:D19 D13:D16 N8:P14" name="Range1"/>
   </protectedRanges>
@@ -10668,7 +10667,6 @@
       <c r="D12" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection password="C49A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -11059,7 +11057,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C49A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="8">
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="B1:I1"/>
